--- a/biology/Botanique/Swartzia_arborescens/Swartzia_arborescens.xlsx
+++ b/biology/Botanique/Swartzia_arborescens/Swartzia_arborescens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Swartzia arborescens est une espèce d'arbre néotropical, appartenant à la famille des Fabaceae. Il s'agit de l'espèce type de la section Possira dans le genre Swartzia[2].
-En Guyane, c'est une espèce connue sous le nom de Wináme i piñiu (Wayãpi)[3].
-On le nomme Serebedan au Guyana, et Adoko (Aukan), Alanjahoedoe, Oranjehout (sranan tongo), Serebedan (Arawak) au Suriname[3].
-Au Venezuela, on l'appelle Guamo, Sibara-koni (Espagnol), Kajehai-detidi (Yekwana)[4].
-Il porte ailleurs encore les noms de Bobinzana amarilla, E-ne-goo-hee-ro-ma, Waremapan-soela[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Swartzia arborescens est une espèce d'arbre néotropical, appartenant à la famille des Fabaceae. Il s'agit de l'espèce type de la section Possira dans le genre Swartzia.
+En Guyane, c'est une espèce connue sous le nom de Wináme i piñiu (Wayãpi).
+On le nomme Serebedan au Guyana, et Adoko (Aukan), Alanjahoedoe, Oranjehout (sranan tongo), Serebedan (Arawak) au Suriname.
+Au Venezuela, on l'appelle Guamo, Sibara-koni (Espagnol), Kajehai-detidi (Yekwana).
+Il porte ailleurs encore les noms de Bobinzana amarilla, E-ne-goo-hee-ro-ma, Waremapan-soela.
 </t>
         </is>
       </c>
@@ -516,6 +528,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -541,11 +555,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Swartzia arborescens est un arbre ou un arbuste haut de 3-10(23) m pour 8 à 30 cm de diamètre.
 Le tronc est cannelé à la base, recouvert d'une écorce écailleuse, sombre verdâtre à noire, striée de blanc. 
-Le bois parfait rougeâtre est très lourd (densité : 0,95 à 1,3), avec un grain assez fin (20 à 25 vaisseaux par mm). Ces vaisseaux sont de taille moyenne (80 à 180 µm), souvent obstrués par des dépôts blanchâtres ou brun-rouge, avec des ponctuations intervasculaires de 6 à 11 microns[5].
+Le bois parfait rougeâtre est très lourd (densité : 0,95 à 1,3), avec un grain assez fin (20 à 25 vaisseaux par mm). Ces vaisseaux sont de taille moyenne (80 à 180 µm), souvent obstrués par des dépôts blanchâtres ou brun-rouge, avec des ponctuations intervasculaires de 6 à 11 microns.
 Ses rameaux sont minces, pileux à striguleux, souvent glabrescents. 
 Les feuilles sont alternes, composées imparipennées à (1)3-5(7) folioles : (0)1-2(3) paires de folioles latérales, opposées le long du rachis, qui est formé d'un axe stipellé pileux portant sur les côtés deux ailes étroites, glabres, de forme linéaire à oblancéolée-oblongue, courtement auriculées à l'insertions des folioles, longues de 2-3 cm pour 2 mm de large.
 Le pétiole est long de 10-15(-30) mm, et porte des ailes vertes, glabres, oblongues-oblancéolées plus courtes que le pétiole.
@@ -567,7 +583,7 @@
 Le gynécée est glabre, avec le gynophore long de 2-5 mm.
 L'ovaire est glabre, de forme étroitement oblong-elliptique, souvent arqué, mesurant 3-7,5 x 1-1,5 mm.
 Le style est long de 1-3 mm, avec le stigmate capitulé.
-Le fruit, porté au bout d'un axe long de 3-17 mm, est une gousse glabre, elliptique, comprimée latéralement mais bombé, atténuée à chaque extrémité, mesurant 3-5 x 1,5-2,5 cm, et contenant une graine unique[4],[3],[6].
+Le fruit, porté au bout d'un axe long de 3-17 mm, est une gousse glabre, elliptique, comprimée latéralement mais bombé, atténuée à chaque extrémité, mesurant 3-5 x 1,5-2,5 cm, et contenant une graine unique.
 </t>
         </is>
       </c>
@@ -596,9 +612,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Swartzia arborescens est présent de la Colombie au Brésil (bassin amazonien) en passant par le Venezuela, le Guyana, le Suriname, la Guyane, l'Équateur, le Pérou et le Bolivie[4],[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Swartzia arborescens est présent de la Colombie au Brésil (bassin amazonien) en passant par le Venezuela, le Guyana, le Suriname, la Guyane, l'Équateur, le Pérou et le Bolivie,.
 </t>
         </is>
       </c>
@@ -627,10 +645,12 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Swartzia arborescens a une affinité pour les ripisylves et les forêts secondaires autour de 50–700 m d'altitude au Venezuela[4], et depuis le niveau de la mer jusqu'à 600 m d'altitude dans les forêts de terre ferme (non inondées) des Guyanes[3]. Il fleurit en Guyane en juin, août, septembre[6].
-Swartzia arborescens est une espèce fixatrice d'azote atmosphérique[7].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Swartzia arborescens a une affinité pour les ripisylves et les forêts secondaires autour de 50–700 m d'altitude au Venezuela, et depuis le niveau de la mer jusqu'à 600 m d'altitude dans les forêts de terre ferme (non inondées) des Guyanes. Il fleurit en Guyane en juin, août, septembre.
+Swartzia arborescens est une espèce fixatrice d'azote atmosphérique.
 </t>
         </is>
       </c>
@@ -659,9 +679,11 @@
           <t>Chimie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Swartzia arborescens contient les diterpénoïdes de cassane, « swartziarboreols A-E »[8],[9],[10],[11].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Swartzia arborescens contient les diterpénoïdes de cassane, « swartziarboreols A-E ».
 </t>
         </is>
       </c>
@@ -690,9 +712,11 @@
           <t>Histoire naturelle</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet propose la diagnose suivante pour Swartzia arborescens[12] : 
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet propose la diagnose suivante pour Swartzia arborescens : 
 « POSSIRA arboreſcens. (Tabula 355.) 
 Arbor medlocris, trunco octo-pedali, ad ſummitatem ramoſo ; ramis hine &amp; inde ſparſis. Folia alterna, digitata ; foliolis tribus, ſeſſilibus, coſtas planar, marginata?, adnexis ; foliolum ſuperius intermedium ovato-oblongum, acutum, glabrum, integerrimum, foliola, inferiora ovata, acuta, minora. Stipule bina?, exigua?, decidual, ad baſim coſta folioſe. Flores corymboſi, axillares. Bractejb bina?, ad baſim pedunculorum.
 Florebac, fructumque ferebat Maio.
